--- a/xlsx/关税_intext.xlsx
+++ b/xlsx/关税_intext.xlsx
@@ -15,267 +15,276 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="90">
   <si>
     <t>关税</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E7%A8%85</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E8%B4%A2%E6%94%BF</t>
+  </si>
+  <si>
+    <t>公共财政</t>
+  </si>
+  <si>
+    <t>政策_政策_经济政策_关税</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E6%94%BF%E7%AD%96</t>
+  </si>
+  <si>
+    <t>公共政策</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E6%94%BF%E7%AD%96</t>
+  </si>
+  <si>
+    <t>经济政策</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B4%A2%E6%94%BF%E6%94%BF%E7%AD%96</t>
+  </si>
+  <si>
+    <t>财政政策</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B4%A7%E5%B8%81%E6%94%BF%E7%AD%96</t>
+  </si>
+  <si>
+    <t>货币政策</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%A7%E4%B8%9A%E6%94%BF%E7%AD%96</t>
+  </si>
+  <si>
+    <t>产业政策</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E6%94%BF%E7%AD%96</t>
+  </si>
+  <si>
+    <t>社会政策</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C%E9%A2%84%E7%AE%97</t>
+  </si>
+  <si>
+    <t>政府预算</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B5%A4%E5%AD%97</t>
+  </si>
+  <si>
+    <t>赤字</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%80%BA</t>
+  </si>
+  <si>
+    <t>公债</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E5%80%BA</t>
+  </si>
+  <si>
+    <t>外债</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B4%A2%E6%94%BF%E9%83%A8</t>
+  </si>
+  <si>
+    <t>财政部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B4%A7%E5%B8%81%E4%BE%9B%E5%BA%94</t>
+  </si>
+  <si>
+    <t>货币供应</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E7%8E%87</t>
+  </si>
+  <si>
+    <t>利率</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B2%A8%E5%B9%A3%E5%9F%BA%E6%95%B8</t>
+  </si>
+  <si>
+    <t>货币基数</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AD%98%E6%AC%BE%E6%BA%96%E5%82%99%E9%87%91%E6%AF%94%E7%8E%87</t>
+  </si>
+  <si>
+    <t>存款准备金比率</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AD%98%E6%AC%BE%E6%BA%96%E5%82%99%E9%87%91</t>
+  </si>
+  <si>
+    <t>存款准备金</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%BB%84%E9%87%91%E5%82%A8%E5%A4%87</t>
+  </si>
+  <si>
+    <t>黄金储备</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E9%93%B6%E8%A1%8C</t>
+  </si>
+  <si>
+    <t>中央银行</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E7%B3%BB%E6%B1%87%E7%8E%87%E5%88%B6</t>
+  </si>
+  <si>
+    <t>联系汇率制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E5%85%B3%E7%A8%8E%E5%A3%81%E5%9E%92</t>
+  </si>
+  <si>
+    <t>非关税壁垒</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%87%80%E5%87%BA%E5%8F%A3</t>
+  </si>
+  <si>
+    <t>净出口</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B2%BF%E6%98%93%E5%88%A9%E5%BE%97</t>
+  </si>
+  <si>
+    <t>贸易利得</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B4%B8%E6%98%93%E4%BF%9D%E6%8A%A4%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>贸易保护主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E8%B4%B8%E6%98%93</t>
+  </si>
+  <si>
+    <t>自由贸易</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%95%86%E5%8B%99%E9%83%A8</t>
+  </si>
+  <si>
+    <t>商务部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B4%B8%E6%98%93%E5%A3%81%E5%9E%92</t>
+  </si>
+  <si>
+    <t>贸易壁垒</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Template_talk:%E5%85%AC%E5%85%B1%E8%B4%A2%E6%94%BF</t>
+  </si>
+  <si>
+    <t>Template talk-公共财政</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6</t>
+  </si>
+  <si>
+    <t>国家</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%85%B3</t>
+  </si>
+  <si>
+    <t>海关</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A8%8E</t>
+  </si>
+  <si>
+    <t>税</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%B6%E5%85%A5</t>
+  </si>
+  <si>
+    <t>收入</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BB%B7%E6%A0%BC</t>
+  </si>
+  <si>
+    <t>价格</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%82%BE%E9%8A%B7</t>
+  </si>
+  <si>
+    <t>倾销</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E5%80%BE%E9%94%80%E7%A8%8E</t>
+  </si>
+  <si>
+    <t>反倾销税</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E5%85%A8%E7%90%83%E5%8C%96</t>
+  </si>
+  <si>
+    <t>经济全球化</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%9F%BA%E6%96%87%E5%BA%93</t>
+  </si>
+  <si>
+    <t>维基文库</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B</t>
+  </si>
+  <si>
+    <t>法律</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E6%B0%91%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>中华民国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
+  </si>
+  <si>
+    <t>日本</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>中华人民共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A8%85%E9%97%9C_(%E6%97%A5%E6%9C%AC)</t>
+  </si>
+  <si>
+    <t>税关 (日本)</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B3%E7%A8%8E</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E8%B4%A2%E6%94%BF</t>
-  </si>
-  <si>
-    <t>公共财政</t>
-  </si>
-  <si>
-    <t>政策_政策_貨幣政策_关税</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E6%94%BF%E7%AD%96</t>
-  </si>
-  <si>
-    <t>公共政策</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E6%94%BF%E7%AD%96</t>
-  </si>
-  <si>
-    <t>经济政策</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B4%A2%E6%94%BF%E6%94%BF%E7%AD%96</t>
-  </si>
-  <si>
-    <t>财政政策</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B4%A7%E5%B8%81%E6%94%BF%E7%AD%96</t>
-  </si>
-  <si>
-    <t>货币政策</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%A7%E4%B8%9A%E6%94%BF%E7%AD%96</t>
-  </si>
-  <si>
-    <t>产业政策</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E6%94%BF%E7%AD%96</t>
-  </si>
-  <si>
-    <t>社会政策</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C%E9%A2%84%E7%AE%97</t>
-  </si>
-  <si>
-    <t>政府预算</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B5%A4%E5%AD%97</t>
-  </si>
-  <si>
-    <t>赤字</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%80%BA</t>
-  </si>
-  <si>
-    <t>公债</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E5%80%BA</t>
-  </si>
-  <si>
-    <t>外债</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B4%A2%E6%94%BF%E9%83%A8</t>
-  </si>
-  <si>
-    <t>财政部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B4%A7%E5%B8%81%E4%BE%9B%E5%BA%94</t>
-  </si>
-  <si>
-    <t>货币供应</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E7%8E%87</t>
-  </si>
-  <si>
-    <t>利率</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B2%A8%E5%B9%A3%E5%9F%BA%E6%95%B8</t>
-  </si>
-  <si>
-    <t>貨幣基數</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AD%98%E6%AC%BE%E6%BA%96%E5%82%99%E9%87%91%E6%AF%94%E7%8E%87</t>
-  </si>
-  <si>
-    <t>存款準備金比率</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AD%98%E6%AC%BE%E6%BA%96%E5%82%99%E9%87%91</t>
-  </si>
-  <si>
-    <t>存款準備金</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BB%84%E9%87%91%E5%82%A8%E5%A4%87</t>
-  </si>
-  <si>
-    <t>黄金储备</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E9%93%B6%E8%A1%8C</t>
-  </si>
-  <si>
-    <t>中央银行</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E7%B3%BB%E6%B1%87%E7%8E%87%E5%88%B6</t>
-  </si>
-  <si>
-    <t>联系汇率制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E5%85%B3%E7%A8%8E%E5%A3%81%E5%9E%92</t>
-  </si>
-  <si>
-    <t>非关税壁垒</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%87%80%E5%87%BA%E5%8F%A3</t>
-  </si>
-  <si>
-    <t>净出口</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B2%BF%E6%98%93%E5%88%A9%E5%BE%97</t>
-  </si>
-  <si>
-    <t>貿易利得</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B4%B8%E6%98%93%E4%BF%9D%E6%8A%A4%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>贸易保护主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E8%B4%B8%E6%98%93</t>
-  </si>
-  <si>
-    <t>自由贸易</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%95%86%E5%8B%99%E9%83%A8</t>
-  </si>
-  <si>
-    <t>商務部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B4%B8%E6%98%93%E5%A3%81%E5%9E%92</t>
-  </si>
-  <si>
-    <t>贸易壁垒</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Template_talk:%E5%85%AC%E5%85%B1%E8%B4%A2%E6%94%BF</t>
-  </si>
-  <si>
-    <t>Template talk-公共财政</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6</t>
-  </si>
-  <si>
-    <t>国家</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%85%B3</t>
-  </si>
-  <si>
-    <t>海关</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A8%8E</t>
-  </si>
-  <si>
-    <t>税</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%B6%E5%85%A5</t>
-  </si>
-  <si>
-    <t>收入</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BB%B7%E6%A0%BC</t>
-  </si>
-  <si>
-    <t>价格</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%82%BE%E9%8A%B7</t>
-  </si>
-  <si>
-    <t>傾銷</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E5%80%BE%E9%94%80%E7%A8%8E</t>
-  </si>
-  <si>
-    <t>反倾销税</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E5%85%A8%E7%90%83%E5%8C%96</t>
-  </si>
-  <si>
-    <t>经济全球化</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%9F%BA%E6%96%87%E5%BA%93</t>
-  </si>
-  <si>
-    <t>维基文库</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B</t>
-  </si>
-  <si>
-    <t>法律</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E6%B0%91%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>中华民国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
-  </si>
-  <si>
-    <t>日本</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>中华人民共和国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A8%85%E9%97%9C_(%E6%97%A5%E6%9C%AC)</t>
-  </si>
-  <si>
-    <t>稅關 (日本)</t>
+    <t>浏览条目正文[c]</t>
+  </si>
+  <si>
+    <t>阅读</t>
   </si>
 </sst>
 </file>
@@ -624,7 +633,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1876,6 +1885,64 @@
         <v>3</v>
       </c>
     </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1</v>
+      </c>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>87</v>
+      </c>
+      <c r="F44" t="s">
+        <v>88</v>
+      </c>
+      <c r="G44" t="n">
+        <v>2</v>
+      </c>
+      <c r="H44" t="s">
+        <v>4</v>
+      </c>
+      <c r="I44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1</v>
+      </c>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>87</v>
+      </c>
+      <c r="F45" t="s">
+        <v>89</v>
+      </c>
+      <c r="G45" t="n">
+        <v>1</v>
+      </c>
+      <c r="H45" t="s">
+        <v>4</v>
+      </c>
+      <c r="I45" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
